--- a/Team-Data/2012-13/2-23-2012-13.xlsx
+++ b/Team-Data/2012-13/2-23-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,46 +751,46 @@
         <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>23.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="R2" t="n">
         <v>9.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -735,19 +802,19 @@
         <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC2" t="n">
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -762,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -941,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -950,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -968,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -983,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1162,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
         <v>3</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,19 +1279,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
         <v>34.3</v>
@@ -1239,25 +1306,25 @@
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q5" t="n">
         <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T5" t="n">
         <v>41.2</v>
@@ -1266,31 +1333,31 @@
         <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
         <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1314,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1520,13 +1587,13 @@
         <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1538,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
         <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>0.327</v>
+        <v>0.315</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
         <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W7" t="n">
         <v>8.199999999999999</v>
@@ -1648,28 +1715,28 @@
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.6</v>
+        <v>-4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1693,19 +1760,19 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1726,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1896,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1961,7 +2028,7 @@
         <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1970,28 +2037,28 @@
         <v>19.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V9" t="n">
         <v>15.3</v>
@@ -2000,25 +2067,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.6</v>
       </c>
-      <c r="Y9" t="n">
-        <v>6.7</v>
-      </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
         <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2045,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>26</v>
@@ -2060,7 +2127,7 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>3</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J10" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O10" t="n">
         <v>16.3</v>
@@ -2161,7 +2228,7 @@
         <v>23.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.694</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
@@ -2170,16 +2237,16 @@
         <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
@@ -2191,13 +2258,13 @@
         <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2209,31 +2276,31 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>18</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,7 +2309,7 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2260,19 +2327,19 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2397,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2448,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.534</v>
+        <v>0.544</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,43 +2571,43 @@
         <v>38.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.463</v>
       </c>
       <c r="L12" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="M12" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
         <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
@@ -2555,13 +2622,13 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2570,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,13 +2673,13 @@
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.618</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.433</v>
@@ -2695,7 +2762,7 @@
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
         <v>0.355</v>
@@ -2704,16 +2771,16 @@
         <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.741</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T13" t="n">
         <v>46</v>
@@ -2722,7 +2789,7 @@
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,22 +2798,22 @@
         <v>6.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA13" t="n">
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
         <v>80.59999999999999</v>
@@ -2874,7 +2941,7 @@
         <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
         <v>20.3</v>
@@ -2889,13 +2956,13 @@
         <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
         <v>41.8</v>
@@ -2904,34 +2971,34 @@
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
         <v>9.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2961,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2979,10 +3046,10 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3119,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3161,13 +3228,13 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3325,7 +3392,7 @@
         <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3334,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3358,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -3396,82 +3463,82 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
         <v>78.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O17" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
         <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V17" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="W17" t="n">
         <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD17" t="n">
         <v>27</v>
@@ -3516,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS17" t="n">
         <v>20</v>
@@ -3531,19 +3598,19 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA17" t="n">
         <v>12</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>0.481</v>
+        <v>0.491</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3602,10 +3669,10 @@
         <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.348</v>
@@ -3617,46 +3684,46 @@
         <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>8.4</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3665,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
@@ -3686,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3701,28 +3768,28 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3847,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
@@ -3886,10 +3953,10 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
@@ -3898,7 +3965,7 @@
         <v>14</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4035,13 +4102,13 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>16</v>
@@ -4059,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4068,13 +4135,13 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4086,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
         <v>9</v>
@@ -4217,13 +4284,13 @@
         <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4432,7 +4499,7 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>17</v>
@@ -4441,10 +4508,10 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.268</v>
+        <v>0.273</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,43 +4573,43 @@
         <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O23" t="n">
         <v>12.1</v>
       </c>
       <c r="P23" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R23" t="n">
         <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
         <v>23.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4554,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA23" t="n">
         <v>16.3</v>
@@ -4563,10 +4630,10 @@
         <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4593,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4605,16 +4672,16 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4626,19 +4693,19 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.415</v>
+        <v>0.423</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,64 +4755,64 @@
         <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
         <v>12.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
         <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
         <v>27</v>
@@ -4754,7 +4821,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4772,13 +4839,13 @@
         <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>13</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>16</v>
@@ -4814,7 +4881,7 @@
         <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4939,10 +5006,10 @@
         <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4981,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>14</v>
@@ -4996,13 +5063,13 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5127,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
@@ -5145,7 +5212,7 @@
         <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
@@ -5160,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5348,13 +5415,13 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>16</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
@@ -5730,7 +5797,7 @@
         <v>18</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.554</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
         <v>81.7</v>
@@ -5786,22 +5853,22 @@
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
@@ -5813,7 +5880,7 @@
         <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5825,22 +5892,22 @@
         <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
         <v>21.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5852,25 +5919,25 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5894,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
@@ -5974,7 +6041,7 @@
         <v>18.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O31" t="n">
         <v>14.7</v>
@@ -5983,19 +6050,19 @@
         <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
@@ -6010,19 +6077,19 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6064,16 +6131,16 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
         <v>28</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2012-13</t>
+          <t>2013-02-23</t>
         </is>
       </c>
     </row>
